--- a/hourly datasets/PlantID_year-3final.xlsx
+++ b/hourly datasets/PlantID_year-3final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B489"/>
+  <dimension ref="A1:C470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,21 @@
           <t>Coef.</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>intercept</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>8226</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3375821356142672</v>
+        <v>0.3375816693879192</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1376147838288336</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +466,10 @@
         <v>8224</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3459773498198914</v>
+        <v>0.3459902225893264</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3460924775555629</v>
       </c>
     </row>
     <row r="4">
@@ -468,13 +479,19 @@
       <c r="B4" t="n">
         <v>0.3910491216274333</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.3807583911054742</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>8222</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3165658832504914</v>
+        <v>0.3165659510480245</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1064343368524849</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +499,10 @@
         <v>8219</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3595130623041155</v>
+        <v>0.3594720515912456</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2186389474949704</v>
       </c>
     </row>
     <row r="7">
@@ -492,13 +512,19 @@
       <c r="B7" t="n">
         <v>0.3519579058390534</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.3470613792304582</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>8069</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3486579987660602</v>
+        <v>0.3486579987660596</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.330607682536986</v>
       </c>
     </row>
     <row r="9">
@@ -508,6 +534,9 @@
       <c r="B9" t="n">
         <v>0.2977154412114377</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.2865940447208158</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -516,6 +545,9 @@
       <c r="B10" t="n">
         <v>0.3998573611719135</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.1638637410040778</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -524,13 +556,19 @@
       <c r="B11" t="n">
         <v>0.2266694180549791</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.1539634726542341</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>8056</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3594696273994331</v>
+        <v>0.3594666470648987</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2717925656583218</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +576,10 @@
         <v>8054</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3756491151717316</v>
+        <v>0.3756552632412955</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.117186148408838</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +587,10 @@
         <v>8049</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2959928999744315</v>
+        <v>0.3513555567932546</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2798316853285661</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +598,10 @@
         <v>8048</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3348793713368393</v>
+        <v>0.3348953355944579</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2457016374493194</v>
       </c>
     </row>
     <row r="16">
@@ -564,13 +611,19 @@
       <c r="B16" t="n">
         <v>0.3560069639264148</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.357142218120134</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>8023</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3313017615921722</v>
+        <v>0.3313013951330445</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2204571690436162</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +631,10 @@
         <v>8006</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3067577226555561</v>
+        <v>0.3067587268293176</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2225477008860602</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +642,10 @@
         <v>8002</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2651045207652871</v>
+        <v>0.2651159309700168</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1033581438179888</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +653,10 @@
         <v>7902</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3552588089627652</v>
+        <v>0.3552589312012522</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2455400112640025</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +664,10 @@
         <v>7790</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3313389204876193</v>
+        <v>0.3312809512142626</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1938902909194134</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +675,10 @@
         <v>7504</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2610558085173095</v>
+        <v>0.2610589124783572</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0809552763257933</v>
       </c>
     </row>
     <row r="23">
@@ -620,21 +688,30 @@
       <c r="B23" t="n">
         <v>0.3442054763669455</v>
       </c>
+      <c r="C23" t="n">
+        <v>0.3390089707023291</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7425</v>
+        <v>7348</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5170514726178115</v>
+        <v>0.2793665193148966</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2440921861387304</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7348</v>
+        <v>7345</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2794051590147167</v>
+        <v>0.2679792240100722</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0887319980909102</v>
       </c>
     </row>
     <row r="26">
@@ -644,13 +721,19 @@
       <c r="B26" t="n">
         <v>0.6209482674426867</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.2788792633357842</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>7325</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2976715967722236</v>
+        <v>0.2976783375139103</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3003233814720176</v>
       </c>
     </row>
     <row r="28">
@@ -660,6 +743,9 @@
       <c r="B28" t="n">
         <v>0.288964552219204</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.1315181726369954</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -668,6 +754,9 @@
       <c r="B29" t="n">
         <v>0.3517195920818529</v>
       </c>
+      <c r="C29" t="n">
+        <v>0.2844360205404881</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -676,6 +765,9 @@
       <c r="B30" t="n">
         <v>0.2820050041012944</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.2825082782228505</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -684,13 +776,19 @@
       <c r="B31" t="n">
         <v>0.2628813726081221</v>
       </c>
+      <c r="C31" t="n">
+        <v>0.1974108581819685</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>7258</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3536381330465509</v>
+        <v>0.3552056112680243</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1387430612211009</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +796,10 @@
         <v>7254</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3287042665337599</v>
+        <v>0.3287047412573987</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1862979322105324</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +807,10 @@
         <v>7242</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3855668057522089</v>
+        <v>0.4313646467392873</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.154343393006105</v>
       </c>
     </row>
     <row r="35">
@@ -716,13 +820,19 @@
       <c r="B35" t="n">
         <v>0.2872924908050764</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.1423859232959589</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>7213</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3302516658567211</v>
+        <v>0.3302532130778437</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.2448313430842148</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +840,10 @@
         <v>7210</v>
       </c>
       <c r="B37" t="n">
-        <v>0.333741436755053</v>
+        <v>0.3337407925599004</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.2122693132956674</v>
       </c>
     </row>
     <row r="38">
@@ -740,3613 +853,4760 @@
       <c r="B38" t="n">
         <v>0.2690947624772631</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.1724193667888755</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7159</v>
+        <v>7185</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2563533603908423</v>
+        <v>0.5549086665544454</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5600075012016786</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7158</v>
+        <v>7159</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2542650892863068</v>
+        <v>0.2563533603908423</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.1991017170290022</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7155</v>
+        <v>7158</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2884844761006297</v>
+        <v>0.253954201048707</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1392271751539287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7145</v>
+        <v>7155</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2990085488612747</v>
+        <v>0.2885148788210291</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1916020490699991</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7097</v>
+        <v>7145</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3197297977535226</v>
+        <v>0.4213190851899246</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1549311315520365</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7082</v>
+        <v>7097</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3078902775437782</v>
+        <v>0.3197884958052047</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.1566129024054476</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7063</v>
+        <v>7082</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8587650807344821</v>
+        <v>0.3079662671919267</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.3116662954106439</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7030</v>
+        <v>7063</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5232898172639182</v>
+        <v>0.8608485430517199</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.299468378891515</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7013</v>
+        <v>7030</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2758452841391332</v>
+        <v>0.5232898172639182</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.3131058596246651</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6823</v>
+        <v>7013</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3903977426638197</v>
+        <v>0.2758676420660174</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.2654101662946277</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6772</v>
+        <v>6823</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3071075605561439</v>
+        <v>0.3904035085178436</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.1656486846504052</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6768</v>
+        <v>6772</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3139152027480153</v>
+        <v>0.3071244042493097</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1912907668414672</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6761</v>
+        <v>6768</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3118094704302843</v>
+        <v>0.3139044711496019</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1477825451469734</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6705</v>
+        <v>6761</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3118094704302843</v>
+        <v>0.3118292432328023</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1604081568510461</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6664</v>
+        <v>6705</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3239134485178262</v>
+        <v>0.3118292432328023</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.2925196485586312</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6648</v>
+        <v>6664</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3204907018699634</v>
+        <v>0.3239100576158392</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.1897169918332733</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6641</v>
+        <v>6648</v>
       </c>
       <c r="B55" t="n">
-        <v>0.336647305368832</v>
+        <v>0.3204907018699634</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.1760179609025921</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6639</v>
+        <v>6641</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3401658809202063</v>
+        <v>0.336647305368832</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.4323476657664926</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6558</v>
+        <v>6639</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2884345752270231</v>
+        <v>0.3401658809202063</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.3359504452469934</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6481</v>
+        <v>6558</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3270056222894253</v>
+        <v>0.2884609608925262</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1813137808663647</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6469</v>
+        <v>6481</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3124031038770063</v>
+        <v>0.3270056222894253</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.3269288608779856</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6264</v>
+        <v>6469</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3942849204696893</v>
+        <v>0.3124029455516503</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.3113619278197252</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6257</v>
+        <v>6264</v>
       </c>
       <c r="B61" t="n">
-        <v>0.344199989208964</v>
+        <v>0.3942853871741893</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1733527676754421</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6254</v>
+        <v>6257</v>
       </c>
       <c r="B62" t="n">
-        <v>0.347462985492715</v>
+        <v>0.344199989208964</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.3439381966901676</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6249</v>
+        <v>6254</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3938710786776192</v>
+        <v>0.3474477509389118</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1930390870982171</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6248</v>
+        <v>6249</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3325555553496648</v>
+        <v>0.3938710786776192</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.3974858737351212</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6243</v>
+        <v>6248</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3505635679364759</v>
+        <v>0.3325553136783999</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.1511033958996911</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6213</v>
+        <v>6243</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3289475987313669</v>
+        <v>0.3505630684662259</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.1735411153047841</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6204</v>
+        <v>6213</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3131106082321077</v>
+        <v>0.3289475987313669</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.3255324888907707</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6195</v>
+        <v>6204</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4333745188271447</v>
+        <v>0.3131109879254811</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.3188334421082039</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6194</v>
+        <v>6195</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3553518220789308</v>
+        <v>0.4333752802240257</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.2902720780272882</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6193</v>
+        <v>6194</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3309048530607576</v>
+        <v>0.3553518220789308</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.339833338817214</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6183</v>
+        <v>6193</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3493775997290518</v>
+        <v>0.3309048530607576</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.3184298212639398</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6181</v>
+        <v>6183</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4403404737255137</v>
+        <v>0.3493577554316062</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1317505135697195</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6179</v>
+        <v>6181</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3624745739943535</v>
+        <v>0.4403366239628229</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.2902393441889427</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6178</v>
+        <v>6179</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3940824917441469</v>
+        <v>0.3624745739943535</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.3341670040208296</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6177</v>
+        <v>6178</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3524248889970644</v>
+        <v>0.3940827991133119</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.1933723665771049</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6170</v>
+        <v>6177</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3100609112931146</v>
+        <v>0.3524248889970644</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.2559735295964939</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6166</v>
+        <v>6170</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2945681091406958</v>
+        <v>0.3100609112931146</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.3086902867933782</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>6165</v>
+        <v>6166</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3160168258987847</v>
+        <v>0.2945643051801561</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.2958334948756045</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6156</v>
+        <v>6165</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3180068429516875</v>
+        <v>0.3160168258987847</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.306792862694425</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6155</v>
+        <v>6156</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3345797502519493</v>
+        <v>0.3180159920065876</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1692517663224945</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>6147</v>
+        <v>6155</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3368841879512426</v>
+        <v>0.3345847808777055</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.250484609684553</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6146</v>
+        <v>6147</v>
       </c>
       <c r="B82" t="n">
-        <v>0.323929296953353</v>
+        <v>0.3368841879512426</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.3169188189426153</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>6139</v>
+        <v>6146</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2978629580997154</v>
+        <v>0.323929296953353</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.3240317402787197</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>6138</v>
+        <v>6139</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3169647168699851</v>
+        <v>0.2978630083799067</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.2733332934110017</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6137</v>
+        <v>6138</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3475744311978319</v>
+        <v>0.3170264302732668</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.1900491397736696</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6136</v>
+        <v>6137</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3642300158704982</v>
+        <v>0.3475753351937848</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.4682380712686059</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6124</v>
+        <v>6136</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3557208668032061</v>
+        <v>0.3642300158704982</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.3531379553092373</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6113</v>
+        <v>6124</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3537696975666812</v>
+        <v>0.3557267077613957</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.3338943964727801</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>6106</v>
+        <v>6113</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3138373516901738</v>
+        <v>0.3537696975666812</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.3353403281088876</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6101</v>
+        <v>6106</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2833593357134387</v>
+        <v>0.3138714088329795</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.14865923472559</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6098</v>
+        <v>6101</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3011701689746914</v>
+        <v>0.283030422165956</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1019172078511875</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6096</v>
+        <v>6098</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3211902813989592</v>
+        <v>0.3011705868676634</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.1742740999823006</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6095</v>
+        <v>6096</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3212512282518007</v>
+        <v>0.3212051014948271</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.1145123519136322</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>6094</v>
+        <v>6095</v>
       </c>
       <c r="B94" t="n">
-        <v>0.385084518032529</v>
+        <v>0.3212750402475416</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.3165746359689854</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>6090</v>
+        <v>6094</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3191352806145342</v>
+        <v>0.3850846576551236</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.2372872126871421</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6089</v>
+        <v>6090</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2921812456482066</v>
+        <v>0.3191352806145342</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.3196536563811226</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>6085</v>
+        <v>6089</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3384199448657904</v>
+        <v>0.2921950657034285</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.183345199663798</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>6082</v>
+        <v>6085</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3421858813596315</v>
+        <v>0.3384199448657904</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.3337983468801354</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>6077</v>
+        <v>6082</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3359809540843183</v>
+        <v>0.3421794392074741</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.1203777500426917</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>6076</v>
+        <v>6077</v>
       </c>
       <c r="B100" t="n">
-        <v>0.330113146650155</v>
+        <v>0.3359773218695455</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.299928787509659</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>6073</v>
+        <v>6076</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3181012784767248</v>
+        <v>0.330113146650155</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.3099230533319258</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>6071</v>
+        <v>6073</v>
       </c>
       <c r="B102" t="n">
-        <v>0.356868042571394</v>
+        <v>0.3181138918111099</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.2322834882129907</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>6068</v>
+        <v>6071</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3327946556173814</v>
+        <v>0.3568690405593052</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.2493394045097473</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>6065</v>
+        <v>6068</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3453637335930844</v>
+        <v>0.3327946556173814</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.3150645948874881</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>6064</v>
+        <v>6065</v>
       </c>
       <c r="B105" t="n">
-        <v>0.331741982787675</v>
+        <v>0.34536379009736</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.1469635939031174</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>6061</v>
+        <v>6064</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3073576470737306</v>
+        <v>0.3317420279534951</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.1277468965836532</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>6055</v>
+        <v>6061</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3011233071479204</v>
+        <v>0.3073619245059167</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.2642552421881137</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>6052</v>
+        <v>6055</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3711664666894705</v>
+        <v>0.3011233071479204</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.3135454968412625</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>6046</v>
+        <v>6052</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2924147683719653</v>
+        <v>0.3711664666894705</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.1771984575646659</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>6042</v>
+        <v>6046</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3269784428661055</v>
+        <v>0.4509276412732917</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.2466125055428182</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>6041</v>
+        <v>6042</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3175417490312554</v>
+        <v>0.3269869487916963</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.234476357079803</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>6035</v>
+        <v>6041</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3726725398038176</v>
+        <v>0.3175417490312554</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.2807102402235189</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>6034</v>
+        <v>6035</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3835407175611572</v>
+        <v>0.3730810297488938</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.1409048156078124</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>6031</v>
+        <v>6034</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3815600073727803</v>
+        <v>0.3835399782390422</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.2722560141879464</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>6030</v>
+        <v>6031</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2958641259208325</v>
+        <v>0.3815592543328729</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.1380569403607168</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>6025</v>
+        <v>6030</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2775200929196038</v>
+        <v>0.2958641259208316</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.1831766541385078</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>6021</v>
+        <v>6025</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3147774485332008</v>
+        <v>0.2773743025863576</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.1927438663895361</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>6019</v>
+        <v>6021</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3499294241887062</v>
+        <v>0.3147774485332008</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.1706352357618054</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>6018</v>
+        <v>6019</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3262830303867746</v>
+        <v>0.3499312939377931</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.1436121772171301</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>6017</v>
+        <v>6018</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3321686102529086</v>
+        <v>0.3262830303867746</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.4476929622559864</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>6016</v>
+        <v>6017</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4325969424687512</v>
+        <v>0.3321705038376624</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.1991532079216721</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>6013</v>
+        <v>6016</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3275909557775364</v>
+        <v>0.4325987928312894</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.1643106711884446</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6009</v>
+        <v>6013</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3130985432555281</v>
+        <v>0.3275932574431649</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.2726680701991528</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>6004</v>
+        <v>6009</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4179740835183399</v>
+        <v>0.3130986022320869</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.2498245864539701</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6002</v>
+        <v>6004</v>
       </c>
       <c r="B125" t="n">
-        <v>0.355906360245601</v>
+        <v>0.418013903105571</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.2326262219541946</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4941</v>
+        <v>6002</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3269649267650446</v>
+        <v>0.355906360245601</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.3559368456588778</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4940</v>
+        <v>4941</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4100573603875895</v>
+        <v>0.3269656743995359</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.2785783069505193</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>4939</v>
+        <v>4940</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3599409817291185</v>
+        <v>0.4100915440330701</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.2903566401047318</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4938</v>
+        <v>4939</v>
       </c>
       <c r="B129" t="n">
-        <v>0.5137258671015217</v>
+        <v>0.3599409817291185</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.3003735191900068</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>4937</v>
+        <v>4938</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3699668395629799</v>
+        <v>0.5137258671015217</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.5053700391889887</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4271</v>
+        <v>4937</v>
       </c>
       <c r="B131" t="n">
-        <v>0.2790757186200153</v>
+        <v>0.369927454460611</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.2337569672666094</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>4266</v>
+        <v>4271</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3139996562906943</v>
+        <v>0.2790839963668401</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.1883455351343121</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>4259</v>
+        <v>4266</v>
       </c>
       <c r="B133" t="n">
-        <v>0.2747507562898261</v>
+        <v>0.3142113044687463</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.2285394416688533</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4195</v>
+        <v>4259</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3510147648571924</v>
+        <v>0.2748330903360226</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.09955352876841848</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>4162</v>
+        <v>4195</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3163676167180717</v>
+        <v>0.3512806453753618</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.2488552396929805</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4158</v>
+        <v>4162</v>
       </c>
       <c r="B136" t="n">
-        <v>0.2832211072060958</v>
+        <v>0.3163676167180717</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.2995518943354713</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>4140</v>
+        <v>4158</v>
       </c>
       <c r="B137" t="n">
-        <v>0.3121645494986428</v>
+        <v>0.2832211072060958</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.2658567924274359</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>4078</v>
+        <v>4140</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3229436212455054</v>
+        <v>0.3121619269759451</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.216808966311119</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>4076</v>
+        <v>4078</v>
       </c>
       <c r="B139" t="n">
-        <v>0.2728818583622376</v>
+        <v>0.3229436212455054</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.305033864431375</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>4057</v>
+        <v>4076</v>
       </c>
       <c r="B140" t="n">
-        <v>0.2726402248846108</v>
+        <v>0.2758493201178804</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.126947190289666</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4054</v>
+        <v>4057</v>
       </c>
       <c r="B141" t="n">
-        <v>0.2828377016191542</v>
+        <v>0.2945691392673172</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.2457530552502951</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>4041</v>
+        <v>4054</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3430235689919213</v>
+        <v>0.2828397626791828</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.2767126699680315</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>3954</v>
+        <v>4042</v>
       </c>
       <c r="B143" t="n">
-        <v>0.3315096357676609</v>
+        <v>0.795371115287435</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.6895618082724293</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>3948</v>
+        <v>4041</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3655813452702966</v>
+        <v>0.3430235689919213</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.3501056123411215</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>3947</v>
+        <v>3954</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3636961263203508</v>
+        <v>0.3315096357676609</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.3318131793675605</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>3946</v>
+        <v>3948</v>
       </c>
       <c r="B146" t="n">
-        <v>0.3273775833247758</v>
+        <v>0.3655813452702966</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.3654161809374564</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>3944</v>
+        <v>3947</v>
       </c>
       <c r="B147" t="n">
-        <v>0.3416220088547691</v>
+        <v>0.3636961263203508</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.35824809638786</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>3943</v>
+        <v>3946</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3743175867085533</v>
+        <v>0.3273796288850984</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.1596169710135927</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>3942</v>
+        <v>3944</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3207850950231178</v>
+        <v>0.3416220088547691</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.3342475187416989</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>3938</v>
+        <v>3943</v>
       </c>
       <c r="B150" t="n">
-        <v>0.4081772379250698</v>
+        <v>0.3743175867085533</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.3786130780603187</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>3936</v>
+        <v>3942</v>
       </c>
       <c r="B151" t="n">
-        <v>0.3842613892665571</v>
+        <v>0.3207963893142685</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.2316187846130293</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3935</v>
+        <v>3938</v>
       </c>
       <c r="B152" t="n">
-        <v>0.3783393589883366</v>
+        <v>0.4081772379250698</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.1623924661610344</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>3845</v>
+        <v>3936</v>
       </c>
       <c r="B153" t="n">
-        <v>0.3037347652583458</v>
+        <v>0.3842613892665571</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.2711470272700969</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>3809</v>
+        <v>3935</v>
       </c>
       <c r="B154" t="n">
-        <v>0.3477641640440172</v>
+        <v>0.3783393589883366</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.3758001055822801</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>3804</v>
+        <v>3845</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3375419342198188</v>
+        <v>0.3037348171569194</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.2596409780897249</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>3803</v>
+        <v>3809</v>
       </c>
       <c r="B156" t="n">
-        <v>0.3358147016876893</v>
+        <v>0.347813465145824</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.308431408190399</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>3796</v>
+        <v>3804</v>
       </c>
       <c r="B157" t="n">
-        <v>0.3619254137914472</v>
+        <v>0.3375337599646178</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.3125925373022437</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3788</v>
+        <v>3803</v>
       </c>
       <c r="B158" t="n">
-        <v>0.3274599996180053</v>
+        <v>0.3358147016876893</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.3299015292053711</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3775</v>
+        <v>3796</v>
       </c>
       <c r="B159" t="n">
-        <v>0.3560619894540608</v>
+        <v>0.3619250395670234</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.2235487350026208</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3648</v>
+        <v>3788</v>
       </c>
       <c r="B160" t="n">
-        <v>0.3048988815428523</v>
+        <v>0.3274599996180053</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.2149023311891733</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>3644</v>
+        <v>3775</v>
       </c>
       <c r="B161" t="n">
-        <v>0.320866665653072</v>
+        <v>0.3560619894540608</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.352136793835588</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>3628</v>
+        <v>3482</v>
       </c>
       <c r="B162" t="n">
-        <v>0.3333198650286139</v>
+        <v>0.4410897870094278</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.214993075195312</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>3627</v>
+        <v>3478</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3135786544704194</v>
+        <v>0.3453475862436461</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.2902914594165728</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>3613</v>
+        <v>3470</v>
       </c>
       <c r="B164" t="n">
-        <v>0.3434502713664035</v>
+        <v>0.3200008883234616</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.298015157725059</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>3612</v>
+        <v>3468</v>
       </c>
       <c r="B165" t="n">
-        <v>0.3442552141571384</v>
+        <v>0.3234508754890624</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.2544741840393605</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>3611</v>
+        <v>3460</v>
       </c>
       <c r="B166" t="n">
-        <v>0.3239388935406138</v>
+        <v>0.3545056632468241</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.296337623044894</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>3601</v>
+        <v>3459</v>
       </c>
       <c r="B167" t="n">
-        <v>0.4026559772838204</v>
+        <v>0.354431483838848</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.2591800557012969</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>3576</v>
+        <v>3457</v>
       </c>
       <c r="B168" t="n">
-        <v>0.322545720794873</v>
+        <v>0.3547515867964996</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.2262222803129795</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>3574</v>
+        <v>3455</v>
       </c>
       <c r="B169" t="n">
-        <v>0.3410648336578735</v>
+        <v>0.3408604713884192</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.2456965216178714</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>3549</v>
+        <v>3454</v>
       </c>
       <c r="B170" t="n">
-        <v>0.3596679560855585</v>
+        <v>0.3455804694830965</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.2702816059369381</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>3527</v>
+        <v>3452</v>
       </c>
       <c r="B171" t="n">
-        <v>0.2828075382011245</v>
+        <v>0.3409255441199077</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.2720643505167022</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>3526</v>
+        <v>3440</v>
       </c>
       <c r="B172" t="n">
-        <v>0.3387033849602437</v>
+        <v>0.3468904068989843</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.2723728411572491</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>3524</v>
+        <v>3439</v>
       </c>
       <c r="B173" t="n">
-        <v>0.2765866688716647</v>
+        <v>0.3063651466374758</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.2919688117431449</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>3523</v>
+        <v>3438</v>
       </c>
       <c r="B174" t="n">
-        <v>0.3487446897749263</v>
+        <v>0.6514809214986136</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.6701088901287862</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>3508</v>
+        <v>3436</v>
       </c>
       <c r="B175" t="n">
-        <v>0.3458752553119187</v>
+        <v>0.3670178068427525</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.4476380931575664</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>3506</v>
+        <v>3407</v>
       </c>
       <c r="B176" t="n">
-        <v>0.3567048263658422</v>
+        <v>0.3489286362216538</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.311596528116489</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>3504</v>
+        <v>3406</v>
       </c>
       <c r="B177" t="n">
-        <v>0.3385314493026592</v>
+        <v>0.3224995396923675</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.2761487050983869</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>3502</v>
+        <v>3405</v>
       </c>
       <c r="B178" t="n">
-        <v>0.3837186248531889</v>
+        <v>0.3592411144107319</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.3954561968085281</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>3500</v>
+        <v>3403</v>
       </c>
       <c r="B179" t="n">
-        <v>0.343221731287271</v>
+        <v>0.3868324216884364</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.3498263618258028</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>3497</v>
+        <v>3399</v>
       </c>
       <c r="B180" t="n">
-        <v>0.3187864846528566</v>
+        <v>0.3141135870617336</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.3059680488213986</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>3491</v>
+        <v>3396</v>
       </c>
       <c r="B181" t="n">
-        <v>0.3620430319075597</v>
+        <v>0.4148191179135373</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.2569950882185043</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>3490</v>
+        <v>3393</v>
       </c>
       <c r="B182" t="n">
-        <v>0.3673217540488339</v>
+        <v>0.5535822322498917</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.3712598853293761</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>3489</v>
+        <v>3344</v>
       </c>
       <c r="B183" t="n">
-        <v>0.3270682121156021</v>
+        <v>0.7029881159581374</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.06913825780294991</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>3485</v>
+        <v>3334</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4870129106648403</v>
+        <v>0.2633372606510715</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.1222832566959927</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>3484</v>
+        <v>3317</v>
       </c>
       <c r="B185" t="n">
-        <v>0.3683790428251592</v>
+        <v>0.3283213431818946</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.2924669148720848</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>3482</v>
+        <v>3298</v>
       </c>
       <c r="B186" t="n">
-        <v>0.44108998488005</v>
+        <v>0.3361571105689694</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.2282186188604708</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>3478</v>
+        <v>3297</v>
       </c>
       <c r="B187" t="n">
-        <v>0.3453480697844614</v>
+        <v>0.3895184493255003</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.2636080570314807</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>3470</v>
+        <v>3295</v>
       </c>
       <c r="B188" t="n">
-        <v>0.3200008883234616</v>
+        <v>0.3425201648615499</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.2532909611139575</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>3468</v>
+        <v>3287</v>
       </c>
       <c r="B189" t="n">
-        <v>0.3234698695262513</v>
+        <v>0.3679989342270589</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.2278006859849091</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>3460</v>
+        <v>3280</v>
       </c>
       <c r="B190" t="n">
-        <v>0.3545056632468241</v>
+        <v>0.4730025433859205</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.2438817397315844</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3459</v>
+        <v>3264</v>
       </c>
       <c r="B191" t="n">
-        <v>0.3544314429097383</v>
+        <v>0.3142855085852994</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.2859056812528652</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>3457</v>
+        <v>3250</v>
       </c>
       <c r="B192" t="n">
-        <v>0.3547515867964996</v>
+        <v>0.4515954640945576</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.2737866631775226</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>3455</v>
+        <v>3236</v>
       </c>
       <c r="B193" t="n">
-        <v>0.3408050960240601</v>
+        <v>0.3021884761263453</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.1965322106614235</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3454</v>
+        <v>3181</v>
       </c>
       <c r="B194" t="n">
-        <v>0.3455831802238362</v>
+        <v>0.3536180156238882</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.2041574007053212</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>3452</v>
+        <v>3179</v>
       </c>
       <c r="B195" t="n">
-        <v>0.3409255441199077</v>
+        <v>0.458592229272103</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.2662540688315325</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>3440</v>
+        <v>3178</v>
       </c>
       <c r="B196" t="n">
-        <v>0.3468899477519907</v>
+        <v>0.3579779558485287</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.1996309085824567</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>3439</v>
+        <v>3161</v>
       </c>
       <c r="B197" t="n">
-        <v>0.3063651988349139</v>
+        <v>0.3420359866170155</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.2428325555901376</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>3438</v>
+        <v>3159</v>
       </c>
       <c r="B198" t="n">
-        <v>0.6514875245576693</v>
+        <v>0.2995537592735482</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.2008845655056442</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>3436</v>
+        <v>3149</v>
       </c>
       <c r="B199" t="n">
-        <v>0.3670292743481274</v>
+        <v>0.3970693636473621</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.3586253473830275</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>3407</v>
+        <v>3140</v>
       </c>
       <c r="B200" t="n">
-        <v>0.3489286362216538</v>
+        <v>0.359063009477017</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.3242420967796221</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3406</v>
+        <v>3136</v>
       </c>
       <c r="B201" t="n">
-        <v>0.3224995396923675</v>
+        <v>0.3730206686838645</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.3762586260748703</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>3405</v>
+        <v>3132</v>
       </c>
       <c r="B202" t="n">
-        <v>0.3592411144107319</v>
+        <v>0.2831698918366281</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.275092047698594</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>3403</v>
+        <v>3131</v>
       </c>
       <c r="B203" t="n">
-        <v>0.3868324216884364</v>
+        <v>0.3531005246903396</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.3586268477649053</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>3399</v>
+        <v>3118</v>
       </c>
       <c r="B204" t="n">
-        <v>0.3141135870617336</v>
+        <v>0.351126162739587</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.2775119250293465</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>3396</v>
+        <v>3115</v>
       </c>
       <c r="B205" t="n">
-        <v>0.4148201019813321</v>
+        <v>0.3391422993929015</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.2596330856258413</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>3393</v>
+        <v>3113</v>
       </c>
       <c r="B206" t="n">
-        <v>0.3692946340995369</v>
+        <v>0.3632995402218036</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.2587977303856764</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3344</v>
+        <v>3098</v>
       </c>
       <c r="B207" t="n">
-        <v>0.7029881159581374</v>
+        <v>0.2888783226573309</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.2698596321799835</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>3334</v>
+        <v>3008</v>
       </c>
       <c r="B208" t="n">
-        <v>0.2633372606510714</v>
+        <v>0.4691981013941015</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.3598334500855052</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>3317</v>
+        <v>2964</v>
       </c>
       <c r="B209" t="n">
-        <v>0.3283197608468566</v>
+        <v>0.3604253487751212</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.2713074777922087</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>3298</v>
+        <v>2963</v>
       </c>
       <c r="B210" t="n">
-        <v>0.3361617894256465</v>
+        <v>0.375453742216669</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.1936788574124386</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>3297</v>
+        <v>2956</v>
       </c>
       <c r="B211" t="n">
-        <v>0.3895184493255003</v>
+        <v>0.4209705858848871</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.3786070565467673</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>3295</v>
+        <v>2953</v>
       </c>
       <c r="B212" t="n">
-        <v>0.3425200627356922</v>
+        <v>0.4865436782374518</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.3227574631977723</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>3287</v>
+        <v>2878</v>
       </c>
       <c r="B213" t="n">
-        <v>0.3679992693058688</v>
+        <v>0.3789472224880773</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.304393256242094</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>3280</v>
+        <v>2876</v>
       </c>
       <c r="B214" t="n">
-        <v>0.4729960346192492</v>
+        <v>0.3944259642791071</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.3839884441114698</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>3264</v>
+        <v>2872</v>
       </c>
       <c r="B215" t="n">
-        <v>0.3142855085852994</v>
+        <v>0.3695655784063775</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.3751360010338243</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>3250</v>
+        <v>2866</v>
       </c>
       <c r="B216" t="n">
-        <v>0.3021641999152714</v>
+        <v>0.3465677331915699</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.3407679248947557</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>3236</v>
+        <v>2861</v>
       </c>
       <c r="B217" t="n">
-        <v>0.3021884761263453</v>
+        <v>0.3498148543446241</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.2479993424778854</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>3181</v>
+        <v>2850</v>
       </c>
       <c r="B218" t="n">
-        <v>0.3536133494325197</v>
+        <v>0.3595465468490982</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.2776584044044643</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>3179</v>
+        <v>2848</v>
       </c>
       <c r="B219" t="n">
-        <v>0.4585905690088308</v>
+        <v>0.3358032195165686</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.2604381152815211</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>3178</v>
+        <v>2840</v>
       </c>
       <c r="B220" t="n">
-        <v>0.3579776813673299</v>
+        <v>0.342645339687186</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.271090489703145</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>3161</v>
+        <v>2837</v>
       </c>
       <c r="B221" t="n">
-        <v>0.3420313535760007</v>
+        <v>0.3697055457772424</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.2638505936459202</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>3159</v>
+        <v>2830</v>
       </c>
       <c r="B222" t="n">
-        <v>0.2995690663747747</v>
+        <v>0.3361517729589396</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.3017566274302574</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>3149</v>
+        <v>2828</v>
       </c>
       <c r="B223" t="n">
-        <v>0.3970254570934584</v>
+        <v>0.3651610189869895</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.367466054912949</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>3140</v>
+        <v>2823</v>
       </c>
       <c r="B224" t="n">
-        <v>0.359063009477017</v>
+        <v>0.3072359247380981</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.2563055161771973</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>3136</v>
+        <v>2817</v>
       </c>
       <c r="B225" t="n">
-        <v>0.3730206686838645</v>
+        <v>0.3336989254305771</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.315724023988516</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>3132</v>
+        <v>2790</v>
       </c>
       <c r="B226" t="n">
-        <v>0.2831884800193374</v>
+        <v>0.3091516302718673</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.1201371576136006</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>3131</v>
+        <v>2727</v>
       </c>
       <c r="B227" t="n">
-        <v>0.3531005246903396</v>
+        <v>0.3812627461222932</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.3742478604853856</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>3118</v>
+        <v>2721</v>
       </c>
       <c r="B228" t="n">
-        <v>0.3511241710078274</v>
+        <v>0.3515681503869049</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.240315568837137</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>3115</v>
+        <v>2718</v>
       </c>
       <c r="B229" t="n">
-        <v>0.3391421886808542</v>
+        <v>0.3517610467117053</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.3077592352267005</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>3113</v>
+        <v>2716</v>
       </c>
       <c r="B230" t="n">
-        <v>0.3632927103687771</v>
+        <v>0.4323866030578687</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.2668114067041601</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>3098</v>
+        <v>2713</v>
       </c>
       <c r="B231" t="n">
-        <v>0.2888783226573309</v>
+        <v>0.3226755814652848</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.3367698282813154</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>3008</v>
+        <v>2712</v>
       </c>
       <c r="B232" t="n">
-        <v>0.4170529034740732</v>
+        <v>0.1756198138304357</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.09611220414042113</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>3006</v>
+        <v>2709</v>
       </c>
       <c r="B233" t="n">
-        <v>0.3176683580458565</v>
+        <v>0.3322490000899307</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.2859772350369584</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2964</v>
+        <v>2706</v>
       </c>
       <c r="B234" t="n">
-        <v>0.3604350301329923</v>
+        <v>0.3158640902809999</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.3015715222718202</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2963</v>
+        <v>2642</v>
       </c>
       <c r="B235" t="n">
-        <v>0.3754542388322354</v>
+        <v>0.4769340237222041</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.4292812698151163</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2956</v>
+        <v>2625</v>
       </c>
       <c r="B236" t="n">
-        <v>0.3636035049506749</v>
+        <v>0.3290031610836697</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.2088267612679209</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>2953</v>
+        <v>2549</v>
       </c>
       <c r="B237" t="n">
-        <v>0.4854010869787284</v>
+        <v>0.3039165374412484</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.2757546074158773</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2878</v>
+        <v>2517</v>
       </c>
       <c r="B238" t="n">
-        <v>0.3789472224880773</v>
+        <v>0.3528819905930844</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.278772081668949</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2876</v>
+        <v>2516</v>
       </c>
       <c r="B239" t="n">
-        <v>0.3944259642791071</v>
+        <v>0.3470005316885564</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.2526845227744221</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2872</v>
+        <v>2513</v>
       </c>
       <c r="B240" t="n">
-        <v>0.3695655784063775</v>
+        <v>0.3991469676045295</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.2213385066290282</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2866</v>
+        <v>2511</v>
       </c>
       <c r="B241" t="n">
-        <v>0.3465677331915699</v>
+        <v>0.3531622730058619</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.2927369789153405</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2861</v>
+        <v>2500</v>
       </c>
       <c r="B242" t="n">
-        <v>0.349808208540386</v>
+        <v>0.3167760371851026</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.2893181426080578</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2850</v>
+        <v>2491</v>
       </c>
       <c r="B243" t="n">
-        <v>0.3595459883495822</v>
+        <v>0.3350439340508861</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.1927383650412298</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2848</v>
+        <v>2480</v>
       </c>
       <c r="B244" t="n">
-        <v>0.3357321019369828</v>
+        <v>0.3749470550798856</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.3707201081379852</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2840</v>
+        <v>2454</v>
       </c>
       <c r="B245" t="n">
-        <v>0.342645339687186</v>
+        <v>0.3596412478040354</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.3208979603350733</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2837</v>
+        <v>2451</v>
       </c>
       <c r="B246" t="n">
-        <v>0.3697055457772424</v>
+        <v>0.3146447335694275</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.3141361198803139</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2830</v>
+        <v>2450</v>
       </c>
       <c r="B247" t="n">
-        <v>0.3361517624966632</v>
+        <v>0.3272735805391161</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.2210998891054936</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2828</v>
+        <v>2446</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3651610189869895</v>
+        <v>0.3857896147399915</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.1931471833018372</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2823</v>
+        <v>2442</v>
       </c>
       <c r="B249" t="n">
-        <v>0.3072475182219689</v>
+        <v>0.3300576480582956</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.2959833095220774</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2817</v>
+        <v>2408</v>
       </c>
       <c r="B250" t="n">
-        <v>0.3336989254305771</v>
+        <v>0.3846079644874751</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.2619368004448781</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2790</v>
+        <v>2406</v>
       </c>
       <c r="B251" t="n">
-        <v>0.309143457181201</v>
+        <v>0.2707343392087674</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.2708824375399626</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2727</v>
+        <v>2403</v>
       </c>
       <c r="B252" t="n">
-        <v>0.3812627461222932</v>
+        <v>0.3371177383005963</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.1497294176187451</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2721</v>
+        <v>2378</v>
       </c>
       <c r="B253" t="n">
-        <v>0.3515681503869049</v>
+        <v>0.3094521383655536</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.2465964915879258</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2718</v>
+        <v>2364</v>
       </c>
       <c r="B254" t="n">
-        <v>0.3517610467117053</v>
+        <v>0.3465298648536924</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.3090238502567385</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2716</v>
+        <v>2341</v>
       </c>
       <c r="B255" t="n">
-        <v>0.2961276601176474</v>
+        <v>0.3822054136162328</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.3282068558432737</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2713</v>
+        <v>2336</v>
       </c>
       <c r="B256" t="n">
-        <v>0.3226728964546804</v>
+        <v>0.4343710554315031</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.32696456384572</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>2712</v>
+        <v>2330</v>
       </c>
       <c r="B257" t="n">
-        <v>0.1756198643960378</v>
+        <v>0.3437072234179296</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.2928476811710856</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2709</v>
+        <v>2326</v>
       </c>
       <c r="B258" t="n">
-        <v>0.332235506331974</v>
+        <v>0.4946591566155706</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.2942143029176222</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2706</v>
+        <v>2324</v>
       </c>
       <c r="B259" t="n">
-        <v>0.3158639657324712</v>
+        <v>0.3173707919097372</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.226014060924037</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>2642</v>
+        <v>2292</v>
       </c>
       <c r="B260" t="n">
-        <v>0.4769340237222041</v>
+        <v>0.3607573632013608</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.2500733607148659</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2625</v>
+        <v>2291</v>
       </c>
       <c r="B261" t="n">
-        <v>0.3289851270672479</v>
+        <v>0.2942963342001648</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.2974690910005146</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2549</v>
+        <v>2277</v>
       </c>
       <c r="B262" t="n">
-        <v>0.3039165374412484</v>
+        <v>0.2948232698156089</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.2616460726753101</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>2535</v>
+        <v>2241</v>
       </c>
       <c r="B263" t="n">
-        <v>0.3486469814411038</v>
+        <v>0.3109917396219942</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.2937951456605155</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2517</v>
+        <v>2240</v>
       </c>
       <c r="B264" t="n">
-        <v>0.3528826521289296</v>
+        <v>0.2980844664786259</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.2556203788459915</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2516</v>
+        <v>2187</v>
       </c>
       <c r="B265" t="n">
-        <v>0.3470005316885564</v>
+        <v>0.3887948585794203</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.1474578961872844</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2513</v>
+        <v>2169</v>
       </c>
       <c r="B266" t="n">
-        <v>0.3991163029607726</v>
+        <v>0.3176632808990593</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.1658850780228538</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2511</v>
+        <v>2168</v>
       </c>
       <c r="B267" t="n">
-        <v>0.3473363604613354</v>
+        <v>0.3166295028441531</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.3113079647315179</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2500</v>
+        <v>2167</v>
       </c>
       <c r="B268" t="n">
-        <v>0.316817436692188</v>
+        <v>0.3291370109934407</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.3161546631539895</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2491</v>
+        <v>2161</v>
       </c>
       <c r="B269" t="n">
-        <v>0.3350429692560364</v>
+        <v>0.3098211873615489</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.3116725203374492</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>2480</v>
+        <v>2132</v>
       </c>
       <c r="B270" t="n">
-        <v>0.3749470550798856</v>
+        <v>0.6081023833629201</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.2315965697361895</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2454</v>
+        <v>2107</v>
       </c>
       <c r="B271" t="n">
-        <v>0.3596412478040352</v>
+        <v>0.343545667994265</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.193265161966216</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2451</v>
+        <v>2104</v>
       </c>
       <c r="B272" t="n">
-        <v>0.314631064001486</v>
+        <v>0.3347946803764163</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.2747617829466781</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2450</v>
+        <v>2103</v>
       </c>
       <c r="B273" t="n">
-        <v>0.3265616072042188</v>
+        <v>0.3322736906719441</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.3248551201729524</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2446</v>
+        <v>2098</v>
       </c>
       <c r="B274" t="n">
-        <v>0.331682935188251</v>
+        <v>0.3061498715637531</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.2915212552525172</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2442</v>
+        <v>2094</v>
       </c>
       <c r="B275" t="n">
-        <v>0.3300576480582956</v>
+        <v>0.3503991897182613</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.2254630755090985</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2408</v>
+        <v>2080</v>
       </c>
       <c r="B276" t="n">
-        <v>0.3846083822852814</v>
+        <v>0.2991856315101399</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.3053462394707828</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2406</v>
+        <v>2076</v>
       </c>
       <c r="B277" t="n">
-        <v>0.2704347957221045</v>
+        <v>0.3520211668473317</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.3474627878059647</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2403</v>
+        <v>2070</v>
       </c>
       <c r="B278" t="n">
-        <v>0.3371191709618152</v>
+        <v>0.2838147934412955</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.2528757366720847</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2378</v>
+        <v>2051</v>
       </c>
       <c r="B279" t="n">
-        <v>0.3094474686826518</v>
+        <v>0.2419362463021816</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.1999451630474342</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2364</v>
+        <v>2050</v>
       </c>
       <c r="B280" t="n">
-        <v>0.346525151070551</v>
+        <v>0.3508688354705199</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.2173137109964694</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2341</v>
+        <v>2049</v>
       </c>
       <c r="B281" t="n">
-        <v>0.3821781953494862</v>
+        <v>0.4508817448132907</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.309156051633852</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2336</v>
+        <v>2048</v>
       </c>
       <c r="B282" t="n">
-        <v>0.4343710554315031</v>
+        <v>0.2528667988143286</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.1943799084538521</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2330</v>
+        <v>2047</v>
       </c>
       <c r="B283" t="n">
-        <v>0.3437072234179296</v>
+        <v>0.3480185237113608</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.1114226457476379</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2326</v>
+        <v>2008</v>
       </c>
       <c r="B284" t="n">
-        <v>0.4047004080300597</v>
+        <v>0.2936265072669575</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.2166677209124326</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2324</v>
+        <v>1961</v>
       </c>
       <c r="B285" t="n">
-        <v>0.3173707919097372</v>
+        <v>0.3432293444450829</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.2642134754866999</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2292</v>
+        <v>1915</v>
       </c>
       <c r="B286" t="n">
-        <v>0.2947928698207594</v>
+        <v>0.3460312381189276</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.1110510190440618</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2291</v>
+        <v>1904</v>
       </c>
       <c r="B287" t="n">
-        <v>0.2942963342001648</v>
+        <v>0.3082507490685539</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.2104812539712514</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2277</v>
+        <v>1893</v>
       </c>
       <c r="B288" t="n">
-        <v>0.2948204362134991</v>
+        <v>0.3401518671067058</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.1208739400379024</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2241</v>
+        <v>1891</v>
       </c>
       <c r="B289" t="n">
-        <v>0.310892663823</v>
+        <v>0.3102412840398763</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.1473594834323255</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2240</v>
+        <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>0.2980848783233343</v>
+        <v>0.3565847322206329</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.1784322607617647</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2187</v>
+        <v>1843</v>
       </c>
       <c r="B291" t="n">
-        <v>0.3887948585794203</v>
+        <v>0.2521709529526425</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.2706493618305746</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2169</v>
+        <v>1832</v>
       </c>
       <c r="B292" t="n">
-        <v>0.3176623324788042</v>
+        <v>0.4039044811375344</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.3734636676419381</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2168</v>
+        <v>1831</v>
       </c>
       <c r="B293" t="n">
-        <v>0.3166295028441531</v>
+        <v>0.3240712593720121</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.2846564357536528</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>2167</v>
+        <v>1825</v>
       </c>
       <c r="B294" t="n">
-        <v>0.3292841198849585</v>
+        <v>0.389450875059638</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.4002942232573834</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2161</v>
+        <v>1769</v>
       </c>
       <c r="B295" t="n">
-        <v>0.3098247266433429</v>
+        <v>0.3091065023597848</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.3099406489657934</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2132</v>
+        <v>1743</v>
       </c>
       <c r="B296" t="n">
-        <v>0.3073521454878735</v>
+        <v>0.3706439191300568</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.2920910695692955</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2107</v>
+        <v>1740</v>
       </c>
       <c r="B297" t="n">
-        <v>0.3435331607162955</v>
+        <v>0.7967539052752305</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.4978267477761208</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2104</v>
+        <v>1733</v>
       </c>
       <c r="B298" t="n">
-        <v>0.334827762796404</v>
+        <v>0.3605750064080268</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.2731222749389475</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2103</v>
+        <v>1731</v>
       </c>
       <c r="B299" t="n">
-        <v>0.3322736906719441</v>
+        <v>0.3451881004578616</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.1784067028765637</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2098</v>
+        <v>1723</v>
       </c>
       <c r="B300" t="n">
-        <v>0.3061644672628672</v>
+        <v>0.3486468233684271</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.3170165747143585</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2094</v>
+        <v>1710</v>
       </c>
       <c r="B301" t="n">
-        <v>0.3503991897182613</v>
+        <v>0.3685631326469661</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.300374962292815</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2080</v>
+        <v>1702</v>
       </c>
       <c r="B302" t="n">
-        <v>0.2991856315101399</v>
+        <v>0.3484837973955707</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.3311104140400901</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2076</v>
+        <v>1682</v>
       </c>
       <c r="B303" t="n">
-        <v>0.3520213778801902</v>
+        <v>0.3508638482031642</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.1649121167496735</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2070</v>
+        <v>1642</v>
       </c>
       <c r="B304" t="n">
-        <v>0.2838095197107496</v>
+        <v>0.3038214105898281</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.1830685392368027</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2051</v>
+        <v>1626</v>
       </c>
       <c r="B305" t="n">
-        <v>0.2419326340152444</v>
+        <v>0.3068366172854221</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.2034909642304348</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2050</v>
+        <v>1619</v>
       </c>
       <c r="B306" t="n">
-        <v>0.3508557627452742</v>
+        <v>0.3783615200941752</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.3558839836583458</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2049</v>
+        <v>1606</v>
       </c>
       <c r="B307" t="n">
-        <v>0.4508721810241764</v>
+        <v>0.3383969654994836</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.2142492507848881</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>2048</v>
+        <v>1599</v>
       </c>
       <c r="B308" t="n">
-        <v>0.2528686576976762</v>
+        <v>0.3234848964732812</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.2083346379420703</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2047</v>
+        <v>1589</v>
       </c>
       <c r="B309" t="n">
-        <v>0.2843973591926668</v>
+        <v>0.35497762323056</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.354308420858376</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2008</v>
+        <v>1573</v>
       </c>
       <c r="B310" t="n">
-        <v>0.2936016813295006</v>
+        <v>0.3594016539875221</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.2741240896798928</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>1961</v>
+        <v>1572</v>
       </c>
       <c r="B311" t="n">
-        <v>0.3432295354003588</v>
+        <v>0.3768194427681854</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.312943624011997</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>1915</v>
+        <v>1571</v>
       </c>
       <c r="B312" t="n">
-        <v>0.3460322473270452</v>
+        <v>0.3285201600788538</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.3119562531646379</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>1904</v>
+        <v>1556</v>
       </c>
       <c r="B313" t="n">
-        <v>0.3082507490685539</v>
+        <v>0.4918245348451198</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.216946448970213</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>1893</v>
+        <v>1554</v>
       </c>
       <c r="B314" t="n">
-        <v>0.3401518671067058</v>
+        <v>0.3434164094908518</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.220303316324231</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>1891</v>
+        <v>1552</v>
       </c>
       <c r="B315" t="n">
-        <v>0.310237185868865</v>
+        <v>0.3142609887255425</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.2476975010780418</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>1888</v>
+        <v>1507</v>
       </c>
       <c r="B316" t="n">
-        <v>0.3565842320199576</v>
+        <v>0.3274405406363879</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.2412069221184094</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>1843</v>
+        <v>1464</v>
       </c>
       <c r="B317" t="n">
-        <v>0.2521765779751869</v>
+        <v>0.3424908998332509</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.2019251580958333</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>1832</v>
+        <v>1458</v>
       </c>
       <c r="B318" t="n">
-        <v>0.4039044811375344</v>
+        <v>1.769220435237894</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.08650252620911984</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1831</v>
+        <v>1449</v>
       </c>
       <c r="B319" t="n">
-        <v>0.3240712593720121</v>
+        <v>1.441125735831712</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.1490029492993842</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>1825</v>
+        <v>1443</v>
       </c>
       <c r="B320" t="n">
-        <v>0.389450875059638</v>
+        <v>0.3271389015105484</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.3074554550887164</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>1769</v>
+        <v>1417</v>
       </c>
       <c r="B321" t="n">
-        <v>0.3091065023597848</v>
+        <v>0.3903444005017936</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.2772898653289583</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>1743</v>
+        <v>1409</v>
       </c>
       <c r="B322" t="n">
-        <v>0.3706439191300568</v>
+        <v>0.4611273930510347</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.1660039676596202</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>1733</v>
+        <v>1402</v>
       </c>
       <c r="B323" t="n">
-        <v>0.3605749133986211</v>
+        <v>0.4132393482933928</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.318391313451155</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>1731</v>
+        <v>1400</v>
       </c>
       <c r="B324" t="n">
-        <v>0.3450791372731613</v>
+        <v>0.3394512888341127</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.237372171408915</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>1723</v>
+        <v>1394</v>
       </c>
       <c r="B325" t="n">
-        <v>0.3486468233684271</v>
+        <v>0.3376781460873726</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.3008252496109864</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>1710</v>
+        <v>1393</v>
       </c>
       <c r="B326" t="n">
-        <v>0.3685631326469661</v>
+        <v>0.3363588796982235</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.04829940355278743</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>1702</v>
+        <v>1385</v>
       </c>
       <c r="B327" t="n">
-        <v>0.3484815618906154</v>
+        <v>0.3169447568483889</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.2295970554455148</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>1682</v>
+        <v>1384</v>
       </c>
       <c r="B328" t="n">
-        <v>0.3508015301256087</v>
+        <v>0.3627507907958956</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.4045334971306354</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>1642</v>
+        <v>1383</v>
       </c>
       <c r="B329" t="n">
-        <v>0.3037372628954257</v>
+        <v>0.326224655621379</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.2007325080083819</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>1626</v>
+        <v>1382</v>
       </c>
       <c r="B330" t="n">
-        <v>0.3068366172854221</v>
+        <v>0.3107928021082495</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.129304939328396</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>1619</v>
+        <v>1381</v>
       </c>
       <c r="B331" t="n">
-        <v>0.3783615200941752</v>
+        <v>0.3419087283952229</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.3390771221167513</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>1606</v>
+        <v>1379</v>
       </c>
       <c r="B332" t="n">
-        <v>0.338511346648016</v>
+        <v>0.3039894836688259</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.2536196353182055</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1599</v>
+        <v>1378</v>
       </c>
       <c r="B333" t="n">
-        <v>0.323489929381325</v>
+        <v>0.3599258274772862</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.3491313711393518</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>1589</v>
+        <v>1374</v>
       </c>
       <c r="B334" t="n">
-        <v>0.35497762323056</v>
+        <v>0.323253809430317</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.1673341476285086</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1573</v>
+        <v>1364</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3594016396583011</v>
+        <v>0.3692272780342023</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.3176353149023133</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>1572</v>
+        <v>1361</v>
       </c>
       <c r="B336" t="n">
-        <v>0.3768191396428638</v>
+        <v>0.2645698210075065</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.1275498591709719</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1571</v>
+        <v>1360</v>
       </c>
       <c r="B337" t="n">
-        <v>0.3285201416189393</v>
+        <v>0.2928090655803984</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.08858550928846126</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>1556</v>
+        <v>1357</v>
       </c>
       <c r="B338" t="n">
-        <v>0.4918172051647872</v>
+        <v>0.310916688848258</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.2086826638889256</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1554</v>
+        <v>1356</v>
       </c>
       <c r="B339" t="n">
-        <v>0.3434166986766384</v>
+        <v>0.3641096128862559</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.1256594329558484</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>1552</v>
+        <v>1355</v>
       </c>
       <c r="B340" t="n">
-        <v>0.3142506891910359</v>
+        <v>0.3485237691485957</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.3548264571379961</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>1507</v>
+        <v>1353</v>
       </c>
       <c r="B341" t="n">
-        <v>0.3271810402586379</v>
+        <v>0.3730690555947798</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.2656743138649514</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>1464</v>
+        <v>1294</v>
       </c>
       <c r="B342" t="n">
-        <v>0.3424881129793852</v>
+        <v>0.3378696593765219</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.1802359177997691</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>1458</v>
+        <v>1248</v>
       </c>
       <c r="B343" t="n">
-        <v>0.394691433938854</v>
+        <v>0.4617319888780593</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.3586802816562659</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>1449</v>
+        <v>1242</v>
       </c>
       <c r="B344" t="n">
-        <v>0.6558107209174977</v>
+        <v>0.3870925922436099</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.3169900886850812</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>1443</v>
+        <v>1241</v>
       </c>
       <c r="B345" t="n">
-        <v>0.3271468822581149</v>
+        <v>0.3513896415467131</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.206509886264276</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1417</v>
+        <v>1240</v>
       </c>
       <c r="B346" t="n">
-        <v>0.3903430086388149</v>
+        <v>0.3587294660153182</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.317161117941439</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1409</v>
+        <v>1230</v>
       </c>
       <c r="B347" t="n">
-        <v>0.4611243911822795</v>
+        <v>0.3054025315551941</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.143589816438368</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>1402</v>
+        <v>1218</v>
       </c>
       <c r="B348" t="n">
-        <v>0.4132393482933928</v>
+        <v>0.299628556970965</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.2844460650861512</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1400</v>
+        <v>1217</v>
       </c>
       <c r="B349" t="n">
-        <v>0.3394416584484543</v>
+        <v>0.2949622571041223</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.223053270545071</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>1394</v>
+        <v>1104</v>
       </c>
       <c r="B350" t="n">
-        <v>0.3376791373246833</v>
+        <v>0.3085134005000834</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.1635564788502372</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1393</v>
+        <v>1082</v>
       </c>
       <c r="B351" t="n">
-        <v>0.3363610707885454</v>
+        <v>0.3032090873945234</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.2565004079326275</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>1385</v>
+        <v>1073</v>
       </c>
       <c r="B352" t="n">
-        <v>0.3169486428605086</v>
+        <v>0.4874724921254696</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.4384772818882419</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1384</v>
+        <v>1048</v>
       </c>
       <c r="B353" t="n">
-        <v>0.3627512949427887</v>
+        <v>0.3604077682963265</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.2850659270509868</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1383</v>
+        <v>1047</v>
       </c>
       <c r="B354" t="n">
-        <v>0.3123577063016264</v>
+        <v>0.331675035014526</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.1099877287254568</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1382</v>
+        <v>1043</v>
       </c>
       <c r="B355" t="n">
-        <v>0.3107920270432948</v>
+        <v>0.3712682377863408</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.3521306521645443</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1381</v>
+        <v>1040</v>
       </c>
       <c r="B356" t="n">
-        <v>0.3419087283952229</v>
+        <v>0.2920422398339001</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.1752877127662336</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1379</v>
+        <v>1012</v>
       </c>
       <c r="B357" t="n">
-        <v>0.3039894836688259</v>
+        <v>0.3643634258920116</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.3593717390274775</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>1378</v>
+        <v>1010</v>
       </c>
       <c r="B358" t="n">
-        <v>0.3599258274772862</v>
+        <v>0.3163002747781987</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.3003249009773176</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1374</v>
+        <v>1008</v>
       </c>
       <c r="B359" t="n">
-        <v>0.323253809430317</v>
+        <v>0.3210764980129261</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.1835662229644428</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>1364</v>
+        <v>1007</v>
       </c>
       <c r="B360" t="n">
-        <v>0.3692272780342023</v>
+        <v>0.7256343179933037</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.1641989755278394</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1361</v>
+        <v>1004</v>
       </c>
       <c r="B361" t="n">
-        <v>0.2645698210075065</v>
+        <v>1.360573840624661</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.4063606390633847</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1360</v>
+        <v>1001</v>
       </c>
       <c r="B362" t="n">
-        <v>0.2928042996626244</v>
+        <v>0.3439142411362506</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.2891848613847732</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>1357</v>
+        <v>995</v>
       </c>
       <c r="B363" t="n">
-        <v>0.3109146380706183</v>
+        <v>0.336870006168575</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.3596386279715459</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>1356</v>
+        <v>994</v>
       </c>
       <c r="B364" t="n">
-        <v>0.3641096128862559</v>
+        <v>0.3447794738934561</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.337534855920713</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1355</v>
+        <v>991</v>
       </c>
       <c r="B365" t="n">
-        <v>0.3485237691485957</v>
+        <v>0.2955583788860135</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.2508367333613032</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>1353</v>
+        <v>988</v>
       </c>
       <c r="B366" t="n">
-        <v>0.3730690555947798</v>
+        <v>0.3613977317660826</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.2400349883376818</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>1305</v>
+        <v>983</v>
       </c>
       <c r="B367" t="n">
-        <v>0.305846250288543</v>
+        <v>0.3727072619365882</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.3639622280840137</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>1294</v>
+        <v>976</v>
       </c>
       <c r="B368" t="n">
-        <v>0.3378102174261709</v>
+        <v>0.3733313385775526</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.1255808861649311</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1248</v>
+        <v>963</v>
       </c>
       <c r="B369" t="n">
-        <v>0.3716164123954826</v>
+        <v>0.2863751680629282</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.2984162635686041</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>1242</v>
+        <v>898</v>
       </c>
       <c r="B370" t="n">
-        <v>0.3869965583787302</v>
+        <v>0.3797544625291625</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.2938636987009448</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1241</v>
+        <v>897</v>
       </c>
       <c r="B371" t="n">
-        <v>0.3513898440629263</v>
+        <v>0.4574127850694143</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.2939824949963679</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>1240</v>
+        <v>892</v>
       </c>
       <c r="B372" t="n">
-        <v>0.3586966308527559</v>
+        <v>0.342471269425406</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.1012279873087513</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>1230</v>
+        <v>891</v>
       </c>
       <c r="B373" t="n">
-        <v>0.30537881349535</v>
+        <v>0.3236514610138225</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.1721998540265285</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>1218</v>
+        <v>889</v>
       </c>
       <c r="B374" t="n">
-        <v>0.2996141879133255</v>
+        <v>0.3612069162793317</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.2034115587225046</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1217</v>
+        <v>887</v>
       </c>
       <c r="B375" t="n">
-        <v>0.2948991993568052</v>
+        <v>0.3215651588276493</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.3201789582449501</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>1104</v>
+        <v>884</v>
       </c>
       <c r="B376" t="n">
-        <v>0.3085001852249163</v>
+        <v>0.336874890273629</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.2493990564413734</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1082</v>
+        <v>876</v>
       </c>
       <c r="B377" t="n">
-        <v>0.3032040456951044</v>
+        <v>0.3177329904057771</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.1561680647105785</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1048</v>
+        <v>864</v>
       </c>
       <c r="B378" t="n">
-        <v>0.3602905354731429</v>
+        <v>0.28145986512847</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.08372861682715244</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1047</v>
+        <v>862</v>
       </c>
       <c r="B379" t="n">
-        <v>0.3316750365041788</v>
+        <v>0.2725076842630482</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.1279337742865053</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>1043</v>
+        <v>861</v>
       </c>
       <c r="B380" t="n">
-        <v>0.3712810175876661</v>
+        <v>0.3185089793814755</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.1984284624444509</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1040</v>
+        <v>856</v>
       </c>
       <c r="B381" t="n">
-        <v>0.2920422398339008</v>
+        <v>0.3462122586868219</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.2923262422529972</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1012</v>
+        <v>762</v>
       </c>
       <c r="B382" t="n">
-        <v>0.3643634258920119</v>
+        <v>0.4550784990384947</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.1306149627209533</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1010</v>
+        <v>734</v>
       </c>
       <c r="B383" t="n">
-        <v>0.3163084911433994</v>
+        <v>0.363565864932252</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.247391824575094</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1008</v>
+        <v>733</v>
       </c>
       <c r="B384" t="n">
-        <v>0.3210758975993266</v>
+        <v>0.408244227118595</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.3341091584893775</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1001</v>
+        <v>728</v>
       </c>
       <c r="B385" t="n">
-        <v>0.3439142411362506</v>
+        <v>0.3425794876847149</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.3124388153630233</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>995</v>
+        <v>727</v>
       </c>
       <c r="B386" t="n">
-        <v>0.3368701334454976</v>
+        <v>0.4427233404111489</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.2866042047818639</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>994</v>
+        <v>715</v>
       </c>
       <c r="B387" t="n">
-        <v>0.3447794738934561</v>
+        <v>0.3299436907387583</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.2879666205033242</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>991</v>
+        <v>710</v>
       </c>
       <c r="B388" t="n">
-        <v>0.2955549720325547</v>
+        <v>0.3623709342276431</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.290525373658313</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>988</v>
+        <v>709</v>
       </c>
       <c r="B389" t="n">
-        <v>0.361395663388167</v>
+        <v>0.3882583506521848</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.366439916073093</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>983</v>
+        <v>708</v>
       </c>
       <c r="B390" t="n">
-        <v>0.3727072619365882</v>
+        <v>0.3414485218044591</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.2726489606852684</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>976</v>
+        <v>703</v>
       </c>
       <c r="B391" t="n">
-        <v>0.3732962771671581</v>
+        <v>0.3665084327973145</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.3107022173737689</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>963</v>
+        <v>699</v>
       </c>
       <c r="B392" t="n">
-        <v>0.2863751680629282</v>
+        <v>0.3267335451440846</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.3067126568855986</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>898</v>
+        <v>688</v>
       </c>
       <c r="B393" t="n">
-        <v>0.3797777943608978</v>
+        <v>0.3514726725329554</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.3100823665028082</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>897</v>
+        <v>683</v>
       </c>
       <c r="B394" t="n">
-        <v>0.4574251085101216</v>
+        <v>0.4136734657995913</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.2649923505924792</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>892</v>
+        <v>676</v>
       </c>
       <c r="B395" t="n">
-        <v>0.3424784421282425</v>
+        <v>0.3623167440584644</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.233022495845976</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>891</v>
+        <v>663</v>
       </c>
       <c r="B396" t="n">
-        <v>0.3236514610138225</v>
+        <v>0.351511773192305</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.2630591704564152</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>889</v>
+        <v>647</v>
       </c>
       <c r="B397" t="n">
-        <v>0.361200546024552</v>
+        <v>0.7440265323143562</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.5007313118705236</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>887</v>
+        <v>646</v>
       </c>
       <c r="B398" t="n">
-        <v>0.3215651588276493</v>
+        <v>0.3209039653024305</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.2718398530700096</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>884</v>
+        <v>645</v>
       </c>
       <c r="B399" t="n">
-        <v>0.3368652405988466</v>
+        <v>0.3377143841249843</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.313605659116416</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>876</v>
+        <v>643</v>
       </c>
       <c r="B400" t="n">
-        <v>0.3177337379195616</v>
+        <v>0.321147009665299</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.08900146837183219</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>864</v>
+        <v>642</v>
       </c>
       <c r="B401" t="n">
-        <v>0.2814611673849706</v>
+        <v>0.2666046746371333</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.1608328058721175</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>862</v>
+        <v>641</v>
       </c>
       <c r="B402" t="n">
-        <v>0.2725077030749663</v>
+        <v>0.3396330925133866</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.3192981575882038</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>861</v>
+        <v>638</v>
       </c>
       <c r="B403" t="n">
-        <v>0.3185101373005329</v>
+        <v>0.482765073146438</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.2290103599667286</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>856</v>
+        <v>634</v>
       </c>
       <c r="B404" t="n">
-        <v>0.3462122586868219</v>
+        <v>0.3376946780579237</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.2842532764771236</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>762</v>
+        <v>620</v>
       </c>
       <c r="B405" t="n">
-        <v>0.4538806060472011</v>
+        <v>0.3292194979337225</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.2665298414048977</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>734</v>
+        <v>612</v>
       </c>
       <c r="B406" t="n">
-        <v>0.308668334160042</v>
+        <v>0.4077302406596379</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.3123274644053577</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>733</v>
+        <v>609</v>
       </c>
       <c r="B407" t="n">
-        <v>0.4080256676796883</v>
+        <v>0.3124977687411751</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.2309699373829703</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>728</v>
+        <v>602</v>
       </c>
       <c r="B408" t="n">
-        <v>0.3425878950024762</v>
+        <v>0.327047582301693</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.1970729470815128</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>727</v>
+        <v>599</v>
       </c>
       <c r="B409" t="n">
-        <v>0.3582104728747857</v>
+        <v>0.2849087084426943</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.1686408547220548</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>715</v>
+        <v>594</v>
       </c>
       <c r="B410" t="n">
-        <v>0.3317166000404975</v>
+        <v>0.3399873495779721</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.2586761182769082</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>710</v>
+        <v>589</v>
       </c>
       <c r="B411" t="n">
-        <v>0.362376789069756</v>
+        <v>0.2570951706611742</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.1688344363302843</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>709</v>
+        <v>568</v>
       </c>
       <c r="B412" t="n">
-        <v>0.3882583506521848</v>
+        <v>0.3303650641388858</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.2389885974168992</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>708</v>
+        <v>564</v>
       </c>
       <c r="B413" t="n">
-        <v>0.3414713090504024</v>
+        <v>0.3703449261913823</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.3591880696155767</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>703</v>
+        <v>562</v>
       </c>
       <c r="B414" t="n">
-        <v>0.3665083918459433</v>
+        <v>0.2977620496748373</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.2609918779174028</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>699</v>
+        <v>548</v>
       </c>
       <c r="B415" t="n">
-        <v>0.3267260768935707</v>
+        <v>0.3094789269879439</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.1454532331319022</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>688</v>
+        <v>546</v>
       </c>
       <c r="B416" t="n">
-        <v>0.351469202863771</v>
+        <v>0.2829018393182925</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.2511032883384667</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>683</v>
+        <v>527</v>
       </c>
       <c r="B417" t="n">
-        <v>0.4139058269127197</v>
+        <v>0.2918081636223241</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.1968888842950083</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>676</v>
+        <v>525</v>
       </c>
       <c r="B418" t="n">
-        <v>0.3623006708404314</v>
+        <v>0.3108957743138865</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.1730800847742746</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>663</v>
+        <v>478</v>
       </c>
       <c r="B419" t="n">
-        <v>0.351511773192305</v>
+        <v>0.8086159152028974</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.09804095508401109</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>646</v>
+        <v>470</v>
       </c>
       <c r="B420" t="n">
-        <v>0.3209039653024305</v>
+        <v>0.3306355214783937</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.2196429711754519</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>645</v>
+        <v>469</v>
       </c>
       <c r="B421" t="n">
-        <v>0.3377143841249843</v>
+        <v>0.345001457002481</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.34545637862358</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>643</v>
+        <v>468</v>
       </c>
       <c r="B422" t="n">
-        <v>0.321147158619613</v>
+        <v>0.3056189105435286</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.2547805422887122</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>642</v>
+        <v>465</v>
       </c>
       <c r="B423" t="n">
-        <v>0.2665962784881931</v>
+        <v>0.3322889943412796</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.2568585630415059</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>641</v>
+        <v>420</v>
       </c>
       <c r="B424" t="n">
-        <v>0.3396330925133866</v>
+        <v>0.3158279976128179</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.2569744398862846</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>638</v>
+        <v>404</v>
       </c>
       <c r="B425" t="n">
-        <v>0.3532798022724126</v>
+        <v>0.364040235045885</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.3030698564783794</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>634</v>
+        <v>400</v>
       </c>
       <c r="B426" t="n">
-        <v>0.337692896533825</v>
+        <v>0.3683096147934987</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.3060159378106315</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>620</v>
+        <v>384</v>
       </c>
       <c r="B427" t="n">
-        <v>0.3292090114725839</v>
+        <v>0.3605210942169429</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.2704996041762879</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>612</v>
+        <v>358</v>
       </c>
       <c r="B428" t="n">
-        <v>0.3753644388643667</v>
+        <v>0.3145508775498829</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.2207878829159927</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>609</v>
+        <v>356</v>
       </c>
       <c r="B429" t="n">
-        <v>0.3124649691354496</v>
+        <v>0.3733181389400641</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.3440042608874917</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>602</v>
+        <v>350</v>
       </c>
       <c r="B430" t="n">
-        <v>0.3270503202879489</v>
+        <v>0.3547966778679724</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.2698261926683354</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>599</v>
+        <v>345</v>
       </c>
       <c r="B431" t="n">
-        <v>0.2848019816761178</v>
+        <v>0.3670693779064172</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.2908892966118271</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>594</v>
+        <v>335</v>
       </c>
       <c r="B432" t="n">
-        <v>0.3399873495779721</v>
+        <v>0.36975098881141</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.3278162770727682</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>589</v>
+        <v>334</v>
       </c>
       <c r="B433" t="n">
-        <v>0.2570871823987011</v>
+        <v>0.2662940546181262</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.1713528359074452</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>568</v>
+        <v>331</v>
       </c>
       <c r="B434" t="n">
-        <v>0.3303648478297252</v>
+        <v>0.342275797923741</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.2779110011234791</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>564</v>
+        <v>330</v>
       </c>
       <c r="B435" t="n">
-        <v>0.3703449261913823</v>
+        <v>0.3685052190783988</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.2844456851083551</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>562</v>
+        <v>315</v>
       </c>
       <c r="B436" t="n">
-        <v>0.2977580416155267</v>
+        <v>0.3466316117992799</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.294783049089839</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>548</v>
+        <v>310</v>
       </c>
       <c r="B437" t="n">
-        <v>0.3094789269879439</v>
+        <v>0.3516048753200279</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0.307863105057052</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>546</v>
+        <v>302</v>
       </c>
       <c r="B438" t="n">
-        <v>0.2828948871926741</v>
+        <v>0.3291594264583128</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.246844071326021</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>527</v>
+        <v>298</v>
       </c>
       <c r="B439" t="n">
-        <v>0.2918005990387961</v>
+        <v>0.3718041910812433</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.3283766258190171</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>525</v>
+        <v>271</v>
       </c>
       <c r="B440" t="n">
-        <v>0.3108954295257332</v>
+        <v>0.3512683538822254</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0.3033126896137863</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>478</v>
+        <v>259</v>
       </c>
       <c r="B441" t="n">
-        <v>0.2001559013708204</v>
+        <v>0.3675731713690769</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0.3216437528135146</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>470</v>
+        <v>247</v>
       </c>
       <c r="B442" t="n">
-        <v>0.3306355214783937</v>
+        <v>0.2990349405603814</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.2146526871627654</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>469</v>
+        <v>207</v>
       </c>
       <c r="B443" t="n">
-        <v>0.345001457002481</v>
+        <v>0.3548213845229464</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.3407543486196282</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>468</v>
+        <v>203</v>
       </c>
       <c r="B444" t="n">
-        <v>0.3054528448983077</v>
+        <v>0.3017145217039288</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.1953017440799605</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>465</v>
+        <v>202</v>
       </c>
       <c r="B445" t="n">
-        <v>0.3322886649992411</v>
+        <v>0.2382326398435774</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.1777174279850091</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>420</v>
+        <v>201</v>
       </c>
       <c r="B446" t="n">
-        <v>0.3158279976128179</v>
+        <v>0.7149256731910474</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0.2481857943212168</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>404</v>
+        <v>173</v>
       </c>
       <c r="B447" t="n">
-        <v>0.3640446483623299</v>
+        <v>0.3498362021639871</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0.2461894059095726</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="B448" t="n">
-        <v>0.3687529698920096</v>
+        <v>0.3549648086952733</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.2085130307932225</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>384</v>
+        <v>169</v>
       </c>
       <c r="B449" t="n">
-        <v>0.3604543757024256</v>
+        <v>0.3207856585481922</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.2479297704740658</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>358</v>
+        <v>165</v>
       </c>
       <c r="B450" t="n">
-        <v>0.3130691766739969</v>
+        <v>0.3185501415929212</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.2306245377074865</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>356</v>
+        <v>160</v>
       </c>
       <c r="B451" t="n">
-        <v>0.3732775322798679</v>
+        <v>0.3657098835234731</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.3631351871735039</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>350</v>
+        <v>141</v>
       </c>
       <c r="B452" t="n">
-        <v>0.3548265317218555</v>
+        <v>0.3282963738473186</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.272047527885258</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>345</v>
+        <v>136</v>
       </c>
       <c r="B453" t="n">
-        <v>0.366869987107166</v>
+        <v>0.333956225674738</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.3377267134907697</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>335</v>
+        <v>130</v>
       </c>
       <c r="B454" t="n">
-        <v>0.3518551301038656</v>
+        <v>0.3840804657990737</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.2946705370932808</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>334</v>
+        <v>127</v>
       </c>
       <c r="B455" t="n">
-        <v>0.265884679548787</v>
+        <v>0.3246868741557186</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.1889438313557885</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>331</v>
+        <v>126</v>
       </c>
       <c r="B456" t="n">
-        <v>0.3426213734943974</v>
+        <v>0.3427965805185795</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.298831572011312</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="B457" t="n">
-        <v>0.3683426905032881</v>
+        <v>0.3404293010212303</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0.293411670683601</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>315</v>
+        <v>118</v>
       </c>
       <c r="B458" t="n">
-        <v>0.3465608068463075</v>
+        <v>0.3310870858027147</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.2667920155092654</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>310</v>
+        <v>116</v>
       </c>
       <c r="B459" t="n">
-        <v>0.3516048753200279</v>
+        <v>0.3426514978760582</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.2460327748679535</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>302</v>
+        <v>113</v>
       </c>
       <c r="B460" t="n">
-        <v>0.3291594264583128</v>
+        <v>0.3238377281116057</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.2886396439372589</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c r="B461" t="n">
-        <v>0.3718041910812433</v>
+        <v>0.3280154271169864</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.191755830130297</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>271</v>
+        <v>87</v>
       </c>
       <c r="B462" t="n">
-        <v>0.3512728627997082</v>
+        <v>0.4125506348651678</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.3231290156155124</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>259</v>
+        <v>60</v>
       </c>
       <c r="B463" t="n">
-        <v>0.3676355472204242</v>
+        <v>0.2775030242455381</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.2784179379983444</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="B464" t="n">
-        <v>0.2990349994298958</v>
+        <v>0.2984445724133653</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.1603441477068829</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="B465" t="n">
-        <v>0.3548213845229464</v>
+        <v>0.333224808781453</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.2822966047486353</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="B466" t="n">
-        <v>0.349836182101731</v>
+        <v>0.3375585769391254</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.2151537783322019</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="B467" t="n">
-        <v>0.354963641663558</v>
+        <v>0.3336696444422945</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.2783659118734138</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="B468" t="n">
-        <v>0.3207447292696242</v>
+        <v>0.337678796430286</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.303870931451506</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="B469" t="n">
-        <v>0.3185501605122089</v>
+        <v>0.3436988754654529</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.311088340097047</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="B470" t="n">
-        <v>0.3657098835234731</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="n">
-        <v>141</v>
-      </c>
-      <c r="B471" t="n">
-        <v>0.3278722261031945</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="n">
-        <v>136</v>
-      </c>
-      <c r="B472" t="n">
-        <v>0.333956225674738</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="n">
-        <v>130</v>
-      </c>
-      <c r="B473" t="n">
-        <v>0.3840828222398283</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="n">
-        <v>127</v>
-      </c>
-      <c r="B474" t="n">
-        <v>0.3248529535496968</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="n">
-        <v>126</v>
-      </c>
-      <c r="B475" t="n">
-        <v>0.3427150070089652</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="n">
-        <v>120</v>
-      </c>
-      <c r="B476" t="n">
-        <v>0.3404223428726306</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="n">
-        <v>118</v>
-      </c>
-      <c r="B477" t="n">
-        <v>0.3305968003508005</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="n">
-        <v>116</v>
-      </c>
-      <c r="B478" t="n">
-        <v>0.3425885569424273</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="n">
-        <v>113</v>
-      </c>
-      <c r="B479" t="n">
-        <v>0.3238377281116057</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="n">
-        <v>108</v>
-      </c>
-      <c r="B480" t="n">
-        <v>0.3280154271169864</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="n">
-        <v>87</v>
-      </c>
-      <c r="B481" t="n">
-        <v>0.4125274875749438</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="n">
-        <v>60</v>
-      </c>
-      <c r="B482" t="n">
-        <v>0.2775085024410526</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="n">
-        <v>59</v>
-      </c>
-      <c r="B483" t="n">
-        <v>0.298444652001942</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="n">
-        <v>56</v>
-      </c>
-      <c r="B484" t="n">
-        <v>0.333224808781453</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="n">
-        <v>51</v>
-      </c>
-      <c r="B485" t="n">
-        <v>0.3375894498086675</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="n">
-        <v>50</v>
-      </c>
-      <c r="B486" t="n">
-        <v>0.3336696444422945</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="n">
-        <v>47</v>
-      </c>
-      <c r="B487" t="n">
-        <v>0.3376769030489813</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="n">
-        <v>26</v>
-      </c>
-      <c r="B488" t="n">
-        <v>0.3436988754654529</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="n">
-        <v>10</v>
-      </c>
-      <c r="B489" t="n">
-        <v>0.3637648178818938</v>
+        <v>0.3637644690781406</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.3576898058938152</v>
       </c>
     </row>
   </sheetData>
